--- a/StructureDefinition-ext-R5-TestReport.setup.xlsx
+++ b/StructureDefinition-ext-R5-TestReport.setup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,15 +466,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The result of the execution of an individual action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-report-action-result-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -733,7 +724,7 @@
   </si>
   <si>
     <t>uri
-canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|0.0.1-snapshot-3|Basic|4.0.1)</t>
+canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|Basic)</t>
   </si>
   <si>
     <t>Extension.extension:action.extension:assert.extension:requirement.url</t>
@@ -1116,8 +1107,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.15625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.5390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2661,43 +2652,43 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>139</v>
@@ -2705,13 +2696,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>77</v>
@@ -2736,14 +2727,14 @@
         <v>93</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -2812,7 +2803,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>124</v>
@@ -2915,7 +2906,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>126</v>
@@ -3020,7 +3011,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>132</v>
@@ -3063,7 +3054,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>77</v>
@@ -3125,7 +3116,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>141</v>
@@ -3151,13 +3142,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3208,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3220,7 +3211,7 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>139</v>
@@ -3228,13 +3219,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
@@ -3259,14 +3250,14 @@
         <v>93</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3335,7 +3326,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>124</v>
@@ -3438,7 +3429,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>126</v>
@@ -3543,7 +3534,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>132</v>
@@ -3586,7 +3577,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>77</v>
@@ -3648,7 +3639,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>141</v>
@@ -3677,10 +3668,10 @@
         <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3731,7 +3722,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -3743,7 +3734,7 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>139</v>
@@ -3751,10 +3742,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3794,7 +3785,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3856,10 +3847,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3882,13 +3873,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3939,7 +3930,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3951,7 +3942,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>139</v>
@@ -3959,13 +3950,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3990,14 +3981,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4066,7 +4057,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>115</v>
@@ -4169,7 +4160,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>117</v>
@@ -4272,7 +4263,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>117</v>
@@ -4306,11 +4297,11 @@
         <v>120</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4379,7 +4370,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>124</v>
@@ -4482,7 +4473,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>126</v>
@@ -4587,7 +4578,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>132</v>
@@ -4630,7 +4621,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>77</v>
@@ -4692,7 +4683,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>141</v>
@@ -4724,7 +4715,7 @@
         <v>120</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4751,43 +4742,43 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="AG35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>139</v>
@@ -4795,13 +4786,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -4826,14 +4817,14 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -4902,7 +4893,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>124</v>
@@ -5005,7 +4996,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>126</v>
@@ -5110,7 +5101,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>132</v>
@@ -5153,7 +5144,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -5215,7 +5206,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>141</v>
@@ -5241,13 +5232,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5298,7 +5289,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5310,7 +5301,7 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>139</v>
@@ -5318,13 +5309,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
@@ -5349,14 +5340,14 @@
         <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -5425,7 +5416,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>124</v>
@@ -5528,7 +5519,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>126</v>
@@ -5633,7 +5624,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>132</v>
@@ -5676,7 +5667,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>77</v>
@@ -5738,7 +5729,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>141</v>
@@ -5767,10 +5758,10 @@
         <v>87</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5821,7 +5812,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -5833,7 +5824,7 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>139</v>
@@ -5841,13 +5832,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -5872,16 +5863,16 @@
         <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -5950,7 +5941,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>124</v>
@@ -6053,7 +6044,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>126</v>
@@ -6156,13 +6147,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -6187,14 +6178,14 @@
         <v>93</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -6263,10 +6254,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6366,10 +6357,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6471,10 +6462,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6514,7 +6505,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>77</v>
@@ -6576,10 +6567,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6602,13 +6593,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6659,7 +6650,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -6671,7 +6662,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>139</v>
@@ -6679,7 +6670,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>132</v>
@@ -6722,7 +6713,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -6784,7 +6775,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>141</v>
@@ -6810,13 +6801,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6867,7 +6858,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -6879,7 +6870,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>139</v>
@@ -6887,10 +6878,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6930,7 +6921,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -6992,10 +6983,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7018,13 +7009,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7075,7 +7066,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7087,7 +7078,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>139</v>
@@ -7095,10 +7086,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7138,7 +7129,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7200,10 +7191,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7226,13 +7217,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7283,7 +7274,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7295,7 +7286,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>139</v>
@@ -7408,10 +7399,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7434,13 +7425,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7491,7 +7482,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -7503,7 +7494,7 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>139</v>
